--- a/data/trans_orig/P36BPD01_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>292561</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>282492</v>
+        <v>281387</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>301679</v>
+        <v>301489</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9175656094347061</v>
+        <v>0.9175656094347062</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8859860891390984</v>
+        <v>0.8825205158022155</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.946161923439013</v>
+        <v>0.9455666064328589</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>485</v>
@@ -762,19 +762,19 @@
         <v>282302</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>270394</v>
+        <v>269507</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>290785</v>
+        <v>289857</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8931890728079585</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8555117444760562</v>
+        <v>0.8527063638311315</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9200286143192196</v>
+        <v>0.9170914438157808</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>788</v>
@@ -783,19 +783,19 @@
         <v>574863</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>560381</v>
+        <v>560590</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>587877</v>
+        <v>587930</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9054307977284711</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8826208115147255</v>
+        <v>0.8829493764644187</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9259269470498527</v>
+        <v>0.9260111120551445</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>26284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17166</v>
+        <v>17356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36353</v>
+        <v>37458</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08243439056529378</v>
+        <v>0.08243439056529379</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05383807656098707</v>
+        <v>0.05443339356714109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1140139108609016</v>
+        <v>0.1174794841977844</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -833,19 +833,19 @@
         <v>33759</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25276</v>
+        <v>26204</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45667</v>
+        <v>46554</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1068109271920415</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07997138568078031</v>
+        <v>0.08290855618421922</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.144488255523944</v>
+        <v>0.1472936361688678</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>81</v>
@@ -854,19 +854,19 @@
         <v>60043</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>47029</v>
+        <v>46976</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>74525</v>
+        <v>74316</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09456920227152893</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07407305295014707</v>
+        <v>0.07398888794485534</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1173791884852745</v>
+        <v>0.117050623535581</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>444827</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>418609</v>
+        <v>421799</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>462871</v>
+        <v>464900</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8528901227581649</v>
+        <v>0.852890122758165</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8026218869289202</v>
+        <v>0.8087381705322056</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8874877494635842</v>
+        <v>0.8913777394646416</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>622</v>
@@ -979,19 +979,19 @@
         <v>472363</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>456186</v>
+        <v>457587</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>484625</v>
+        <v>485331</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8718456539747865</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8419871163698007</v>
+        <v>0.844572853774752</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8944768926677433</v>
+        <v>0.8957804505083917</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>950</v>
@@ -1000,19 +1000,19 @@
         <v>917190</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>890268</v>
+        <v>888497</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>939836</v>
+        <v>941900</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8625483397222723</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.83722999754622</v>
+        <v>0.8355650533626195</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8838453594850654</v>
+        <v>0.8857858871170118</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>76725</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58681</v>
+        <v>56652</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>102943</v>
+        <v>99753</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1471098772418351</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1125122505364157</v>
+        <v>0.1086222605353584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1973781130710798</v>
+        <v>0.1912618294677944</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>92</v>
@@ -1050,19 +1050,19 @@
         <v>69434</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57172</v>
+        <v>56466</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>85611</v>
+        <v>84210</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1281543460252135</v>
+        <v>0.1281543460252134</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1055231073322564</v>
+        <v>0.1042195494916084</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1580128836301988</v>
+        <v>0.1554271462252481</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>140</v>
@@ -1071,19 +1071,19 @@
         <v>146159</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>123513</v>
+        <v>121449</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>173081</v>
+        <v>174852</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1374516602777275</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1161546405149344</v>
+        <v>0.1142141128829883</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.16277000245378</v>
+        <v>0.1644349466373803</v>
       </c>
     </row>
     <row r="9">
@@ -1175,7 +1175,7 @@
         <v>311355</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>306698</v>
+        <v>306626</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>313472</v>
@@ -1184,10 +1184,10 @@
         <v>0.9910776259533963</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9762532347189093</v>
+        <v>0.9760245914932386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9978174845618694</v>
+        <v>0.9978161920612583</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>528</v>
@@ -1196,19 +1196,19 @@
         <v>349358</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>342741</v>
+        <v>342762</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>352440</v>
+        <v>353072</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9832432680118707</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.964619909112556</v>
+        <v>0.9646784255859633</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9919179162119727</v>
+        <v>0.9936970669110119</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>883</v>
@@ -1217,19 +1217,19 @@
         <v>660713</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>653062</v>
+        <v>653775</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>664823</v>
+        <v>665731</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9869196441723032</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9754903501917345</v>
+        <v>0.9765563895656089</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9930583459584886</v>
+        <v>0.9944147615328147</v>
       </c>
     </row>
     <row r="11">
@@ -1249,16 +1249,16 @@
         <v>686</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7460</v>
+        <v>7532</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008922374046603693</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002182515438130627</v>
+        <v>0.002183807938741747</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02374676528109072</v>
+        <v>0.02397540850676212</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1267,19 +1267,19 @@
         <v>5954</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2872</v>
+        <v>2240</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12571</v>
+        <v>12550</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0167567319881293</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008082083788027442</v>
+        <v>0.006302933088987952</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03538009088744401</v>
+        <v>0.03532157441403658</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1288,19 +1288,19 @@
         <v>8757</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4647</v>
+        <v>3739</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16408</v>
+        <v>15695</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01308035582769684</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006941654041511477</v>
+        <v>0.005585238467185375</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02450964980826582</v>
+        <v>0.0234436104343914</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>363951</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>355202</v>
+        <v>353827</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>369769</v>
+        <v>368903</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9753605406437483</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9519152596124669</v>
+        <v>0.9482279998976183</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9909524314470433</v>
+        <v>0.9886327788626524</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>590</v>
@@ -1413,19 +1413,19 @@
         <v>412146</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>396717</v>
+        <v>397653</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>417925</v>
+        <v>417552</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9767389265323027</v>
+        <v>0.976738926532303</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9401740137629783</v>
+        <v>0.9423931274910982</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9904361566906676</v>
+        <v>0.9895523111412043</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>874</v>
@@ -1434,19 +1434,19 @@
         <v>776098</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>761179</v>
+        <v>759712</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>784697</v>
+        <v>784354</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.976092047117091</v>
+        <v>0.9760920471170906</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9573288611093894</v>
+        <v>0.9554836118952336</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9869077476981555</v>
+        <v>0.9864757614514554</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>9194</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3376</v>
+        <v>4242</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17943</v>
+        <v>19318</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02463945935625172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009047568552956747</v>
+        <v>0.01136722113734748</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04808474038753316</v>
+        <v>0.05177200010238181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1484,19 +1484,19 @@
         <v>9815</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4036</v>
+        <v>4409</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25244</v>
+        <v>24308</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02326107346769732</v>
+        <v>0.02326107346769733</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009563843309332262</v>
+        <v>0.01044768885879581</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05982598623702283</v>
+        <v>0.05760687250890177</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1505,19 +1505,19 @@
         <v>19009</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10410</v>
+        <v>10753</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33928</v>
+        <v>35395</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02390795288290916</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0130922523018446</v>
+        <v>0.01352423854854458</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04267113889061056</v>
+        <v>0.04451638810476641</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>192485</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>184747</v>
+        <v>184062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>197774</v>
+        <v>197910</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9359170843799782</v>
+        <v>0.9359170843799786</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8982898795608067</v>
+        <v>0.8949582789344128</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9616326218071384</v>
+        <v>0.9622910897613099</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>474</v>
@@ -1630,19 +1630,19 @@
         <v>219228</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>214737</v>
+        <v>215017</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>222377</v>
+        <v>222032</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9665144614897673</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9467156570408547</v>
+        <v>0.9479517782339073</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9803991079691342</v>
+        <v>0.978877859508211</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>737</v>
@@ -1651,19 +1651,19 @@
         <v>411713</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>401524</v>
+        <v>403439</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>417786</v>
+        <v>418953</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9519642303503771</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9284055286022731</v>
+        <v>0.9328318689653333</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9660053369085575</v>
+        <v>0.9687045420138214</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>13180</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7891</v>
+        <v>7755</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20918</v>
+        <v>21603</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06408291562002155</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03836737819286149</v>
+        <v>0.03770891023869</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1017101204391929</v>
+        <v>0.1050417210655872</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1701,19 +1701,19 @@
         <v>7595</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4446</v>
+        <v>4791</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12086</v>
+        <v>11806</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.03348553851023261</v>
+        <v>0.0334855385102326</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01960089203086581</v>
+        <v>0.02112214049178898</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05328434295914542</v>
+        <v>0.05204822176609276</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -1722,19 +1722,19 @@
         <v>20775</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14702</v>
+        <v>13535</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30964</v>
+        <v>29049</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04803576964962288</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03399466309144271</v>
+        <v>0.03129545798617896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07159447139772722</v>
+        <v>0.06716813103466694</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>267689</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>263392</v>
+        <v>263500</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>269895</v>
+        <v>269834</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9888517812215557</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9729786403782327</v>
+        <v>0.9733774709610691</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9970019488061264</v>
+        <v>0.996773848404259</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>452</v>
@@ -1847,19 +1847,19 @@
         <v>257588</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>250844</v>
+        <v>250906</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>261162</v>
+        <v>260856</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9766383448528243</v>
+        <v>0.976638344852824</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.95106700317753</v>
+        <v>0.9513009987216501</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9901871274403465</v>
+        <v>0.9890261784421269</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>819</v>
@@ -1868,19 +1868,19 @@
         <v>525277</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>518203</v>
+        <v>518470</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>529338</v>
+        <v>529584</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9828245502693291</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9695875683410671</v>
+        <v>0.9700883174355585</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9904216282704029</v>
+        <v>0.9908827790052968</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>3018</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>812</v>
+        <v>873</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7315</v>
+        <v>7207</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01114821877844431</v>
+        <v>0.01114821877844432</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002998051193873401</v>
+        <v>0.003226151595740872</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02702135962176664</v>
+        <v>0.02662252903893095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1918,19 +1918,19 @@
         <v>6162</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2588</v>
+        <v>2894</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12906</v>
+        <v>12844</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02336165514717596</v>
+        <v>0.02336165514717594</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009812872559652561</v>
+        <v>0.01097382155787295</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04893299682246974</v>
+        <v>0.04869900127834982</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1939,19 +1939,19 @@
         <v>9180</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5119</v>
+        <v>4873</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16254</v>
+        <v>15987</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0171754497306709</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009578371729597182</v>
+        <v>0.009117220994703338</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03041243165893295</v>
+        <v>0.02991168256444152</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>686726</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>672643</v>
+        <v>670976</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>697112</v>
+        <v>697332</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9626850347554691</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9429436551371433</v>
+        <v>0.9406066113351156</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9772451236583334</v>
+        <v>0.9775542450478488</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>930</v>
@@ -2064,19 +2064,19 @@
         <v>744160</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>730332</v>
+        <v>731085</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>752939</v>
+        <v>754656</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9638661478590561</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9459554451806339</v>
+        <v>0.9469319856314545</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9752372137606882</v>
+        <v>0.9774621558534823</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1505</v>
@@ -2085,19 +2085,19 @@
         <v>1430885</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1411653</v>
+        <v>1410716</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1445334</v>
+        <v>1445253</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9632989339431058</v>
+        <v>0.963298933943106</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.950351757329604</v>
+        <v>0.949720464303156</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9730258956907601</v>
+        <v>0.9729716795599463</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>26618</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16232</v>
+        <v>16012</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>40701</v>
+        <v>42368</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03731496524453082</v>
+        <v>0.03731496524453081</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02275487634166684</v>
+        <v>0.02244575495215125</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05705634486285678</v>
+        <v>0.05939338866488456</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -2135,19 +2135,19 @@
         <v>27897</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19118</v>
+        <v>17401</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>41725</v>
+        <v>40972</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03613385214094381</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02476278623931185</v>
+        <v>0.02253784414651778</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0540445548193666</v>
+        <v>0.05306801436854559</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>50</v>
@@ -2156,19 +2156,19 @@
         <v>54516</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>40067</v>
+        <v>40148</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>73748</v>
+        <v>74685</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.03670106605689409</v>
+        <v>0.0367010660568941</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02697410430923981</v>
+        <v>0.02702832044005368</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04964824267039602</v>
+        <v>0.05027953569684372</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>739023</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>720711</v>
+        <v>720672</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>752333</v>
+        <v>753656</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.9260099560917975</v>
+        <v>0.9260099560917976</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9030656171969803</v>
+        <v>0.9030164655343476</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9426884983722469</v>
+        <v>0.9443462248510718</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1012</v>
@@ -2281,19 +2281,19 @@
         <v>787035</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>774564</v>
+        <v>772427</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>798403</v>
+        <v>797629</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.9487035720897102</v>
+        <v>0.9487035720897103</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9336702608744446</v>
+        <v>0.9310947675944081</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9624061294096955</v>
+        <v>0.9614733163433851</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1722</v>
@@ -2302,19 +2302,19 @@
         <v>1526058</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1500346</v>
+        <v>1505248</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1542636</v>
+        <v>1544115</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9375764845419309</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9217797276632506</v>
+        <v>0.9247916497260747</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.947761931638064</v>
+        <v>0.9486707389826454</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>59049</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45739</v>
+        <v>44416</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>77361</v>
+        <v>77400</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07399004390820248</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05731150162775294</v>
+        <v>0.05565377514892838</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09693438280301961</v>
+        <v>0.09698353446565237</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>48</v>
@@ -2352,19 +2352,19 @@
         <v>42555</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31187</v>
+        <v>31961</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55026</v>
+        <v>57163</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.05129642791028976</v>
+        <v>0.05129642791028977</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03759387059030449</v>
+        <v>0.03852668365661489</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06632973912555544</v>
+        <v>0.06890523240559172</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>100</v>
@@ -2373,19 +2373,19 @@
         <v>101604</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>85026</v>
+        <v>83547</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>127316</v>
+        <v>122414</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06242351545806917</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0522380683619361</v>
+        <v>0.05132926101735451</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07822027233674946</v>
+        <v>0.07520835027392526</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>3298616</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3262981</v>
+        <v>3261627</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3332419</v>
+        <v>3329719</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9383096611965812</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9281728959894934</v>
+        <v>0.9277878877554724</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9479250832364347</v>
+        <v>0.9471569194369982</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5093</v>
@@ -2498,19 +2498,19 @@
         <v>3524181</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3496994</v>
+        <v>3495096</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3548679</v>
+        <v>3548290</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.945491899269591</v>
+        <v>0.9454918992695911</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9381978510372525</v>
+        <v>0.9376886563649253</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9520643329215916</v>
+        <v>0.9519599897092575</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8278</v>
@@ -2519,19 +2519,19 @@
         <v>6822797</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6781534</v>
+        <v>6777569</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6869244</v>
+        <v>6863772</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.94200582616819</v>
+        <v>0.9420058261681897</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9363086974335911</v>
+        <v>0.9357612796942113</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9484185179452294</v>
+        <v>0.9476630692410426</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>216872</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>183069</v>
+        <v>185769</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>252507</v>
+        <v>253861</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.06169033880341876</v>
+        <v>0.06169033880341875</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05207491676356502</v>
+        <v>0.05284308056300176</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07182710401050675</v>
+        <v>0.07221211224452735</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>264</v>
@@ -2569,19 +2569,19 @@
         <v>203171</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>178673</v>
+        <v>179062</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>230358</v>
+        <v>232256</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.05450810073040889</v>
+        <v>0.0545081007304089</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0479356670784085</v>
+        <v>0.04804001029074264</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06180214896274736</v>
+        <v>0.06231134363507459</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>443</v>
@@ -2590,19 +2590,19 @@
         <v>420043</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>373596</v>
+        <v>379068</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>461306</v>
+        <v>465271</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05799417383181026</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05158148205477067</v>
+        <v>0.05233693075895744</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0636913025664089</v>
+        <v>0.06423872030578881</v>
       </c>
     </row>
     <row r="30">
